--- a/ppt/프로젝트관리.xlsx
+++ b/ppt/프로젝트관리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soomi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4545\Desktop\project\ppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659C1DBA-2E4F-4385-B2A0-4CD5FDA2CF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544D943A-28E7-42C8-866C-B4CCE74F5D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>기획 및 설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -464,17 +464,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -517,7 +506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,131 +528,128 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -731,9 +717,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -771,9 +757,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -806,9 +792,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -841,9 +844,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1019,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -1038,1101 +1058,1103 @@
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="22"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="42" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="42" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="42" t="s">
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="44"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="40"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="45" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="45" t="s">
+      <c r="L7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="45" t="s">
+      <c r="N7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="46" t="s">
+      <c r="P7" s="30" t="s">
         <v>32</v>
       </c>
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="25"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="18"/>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="47" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="25"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="18"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="25"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="18"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="12" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="32" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="25"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="18"/>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="25"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="18"/>
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="25"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="18"/>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="32" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="25"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="18"/>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="25"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="25"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="18"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="48" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="25"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="18"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="37" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="25"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="18"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="32" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="25"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="18"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="25"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="18"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="16" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="25"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="18"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="32" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="25"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="18"/>
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="25"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="18"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="16" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="25"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="18"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="32" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="32" t="s">
+      <c r="I25" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="26"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="19"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="25"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="18"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="16" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="25"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="18"/>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="32" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="25"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="18"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="25"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="18"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="48" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="25"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="18"/>
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="38" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="25"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="18"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="25"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="18"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="25"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="18"/>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="17" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="25"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="18"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="25"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="18"/>
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="25"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="18"/>
       <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="48" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="25"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="18"/>
       <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="40" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="25"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="18"/>
       <c r="Q38" s="2"/>
     </row>
     <row r="39" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="25"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="18"/>
       <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="25"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="18"/>
       <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="18" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="25"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="18"/>
       <c r="Q41" s="2"/>
     </row>
     <row r="42" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="25"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="18"/>
       <c r="Q42" s="2"/>
     </row>
     <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="25"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="18"/>
       <c r="Q43" s="2"/>
     </row>
     <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="18" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="25"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="18"/>
       <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="25"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="18"/>
       <c r="Q45" s="2"/>
     </row>
     <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="25"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="18"/>
       <c r="Q46" s="2"/>
     </row>
     <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="18" t="s">
+      <c r="A47" s="7"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="25"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="18"/>
       <c r="Q47" s="2"/>
     </row>
     <row r="48" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="25"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="18"/>
       <c r="Q48" s="2"/>
     </row>
     <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="25"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="18"/>
       <c r="Q49" s="2"/>
     </row>
     <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="18" t="s">
+      <c r="A50" s="7"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="25"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="18"/>
       <c r="Q50" s="2"/>
     </row>
     <row r="51" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="25"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="18"/>
       <c r="Q51" s="2"/>
     </row>
     <row r="52" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="25"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="18"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="49" t="s">
+    <row r="53" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="7"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="31"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="23"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:17" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="9"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="30"/>
+    <row r="54" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="7"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="24" t="s">
+        <v>2</v>
+      </c>
       <c r="Q54" s="2"/>
     </row>
     <row r="55" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.3">
@@ -2187,7 +2209,7 @@
       </c>
       <c r="N57" s="34"/>
       <c r="O57" s="35"/>
-      <c r="P57" s="32" t="s">
+      <c r="P57" s="24" t="s">
         <v>2</v>
       </c>
       <c r="Q57" s="2"/>
@@ -2212,6 +2234,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C53:C54"/>
     <mergeCell ref="M57:O57"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B2:P3"/>
@@ -2228,9 +2253,6 @@
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C53:C54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
